--- a/it_assets/export_template/非固定资产导入模板.xlsx
+++ b/it_assets/export_template/非固定资产导入模板.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作需求\IT资产管理系统\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\djangoProjects\it_asset_manage_be\it_assets\export_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22350" windowHeight="11130"/>
   </bookViews>
   <sheets>
-    <sheet name="耗材" sheetId="2" r:id="rId1"/>
+    <sheet name="非固定资产" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">耗材!$A$1:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">非固定资产!$A$1:$H$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -448,7 +448,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
